--- a/app/python_logic/empleados.xlsx
+++ b/app/python_logic/empleados.xlsx
@@ -28,22 +28,22 @@
     <t>Cedula</t>
   </si>
   <si>
-    <t>12DFF34EDE12</t>
-  </si>
-  <si>
     <t>12DFF34ED234</t>
   </si>
   <si>
+    <t>12DFCAMBEDE12</t>
+  </si>
+  <si>
+    <t>Roberta</t>
+  </si>
+  <si>
     <t>Albertoso</t>
   </si>
   <si>
-    <t>Roberta</t>
+    <t>robert@gmail.com</t>
   </si>
   <si>
     <t>alberto@gmail.com</t>
-  </si>
-  <si>
-    <t>robert@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -429,13 +429,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3120002393</v>
+        <v>3142220039</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1020339494</v>
+        <v>1021210920</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +446,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3142220039</v>
+        <v>3120002393</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>1021210920</v>
+        <v>1020339494</v>
       </c>
     </row>
   </sheetData>
